--- a/anjou/하얀 리스트_최신.xlsx
+++ b/anjou/하얀 리스트_최신.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anjou_003\Documents\anjou 문서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anjou_003\Documents\TIL\anjou\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF95B47F-472E-496C-AA17-109639123175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C1094D-EFA8-481A-B1A7-0D3396F0D5BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{3D4578EB-7E78-447C-8344-4DCAF160C621}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{3D4578EB-7E78-447C-8344-4DCAF160C621}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>슈다페드 (비슷한거)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -112,51 +112,54 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>듀락칸이지시럽 100p</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>하얀 주요 리스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>듀락칸이지시럽 포</t>
   </si>
   <si>
     <t>듀락칸이지시럽 500ml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아스날패치 1mg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>슈다페드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>딜라트렌에스알캡슐 16mg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>딜라트렌에스알캡슐 8mg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>딜라트렌에스알캡슐 64mg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조인스정 100t</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조인스정 500t</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하얀 주요 리스트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바난건조시럽</t>
+  </si>
+  <si>
+    <t>바난정</t>
+  </si>
+  <si>
+    <t>포리부틴시럽</t>
+  </si>
+  <si>
+    <t>알닥톤</t>
+  </si>
+  <si>
+    <t>세토펜현탁액</t>
+  </si>
+  <si>
+    <t>풀미칸</t>
+  </si>
+  <si>
+    <t>애니펜시럽</t>
+  </si>
+  <si>
+    <t>시네츄라시럽 500ml</t>
+  </si>
+  <si>
+    <t>코데원 포르테 시럽 100p</t>
+  </si>
+  <si>
+    <t>클래신건조시럽 100ml</t>
+  </si>
+  <si>
+    <t>뮤코졸정 1000T</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,6 +202,15 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -208,7 +220,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -268,13 +280,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -287,13 +308,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -753,225 +783,223 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D78F7EBD-E672-4AF4-A3E8-634D59A13FD8}">
-  <dimension ref="B1:E26"/>
+  <dimension ref="B1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="B1" sqref="B1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="9" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-    </row>
-    <row r="2" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="5"/>
-    </row>
-    <row r="3" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="4" t="s">
-        <v>4</v>
-      </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="4" t="s">
-        <v>5</v>
+      <c r="D11" s="2"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="4" t="s">
-        <v>6</v>
+      <c r="D12" s="2"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="C13" s="2"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="4" t="s">
-        <v>12</v>
+      <c r="D13" s="2"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="C14" s="2"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="4" t="s">
-        <v>11</v>
+      <c r="D14" s="2"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="C15" s="2"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="5"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="7"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
     </row>
     <row r="17" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="5"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
     </row>
     <row r="18" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="5"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
     </row>
     <row r="19" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="5"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
     </row>
     <row r="20" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="5"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
     </row>
     <row r="21" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="5"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
     </row>
     <row r="22" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="5"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
     </row>
     <row r="23" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="5"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
     </row>
     <row r="24" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="5"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
     </row>
     <row r="25" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="5"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
     </row>
     <row r="26" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="5"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+    </row>
+    <row r="27" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="7"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B1:E2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/anjou/하얀 리스트_최신.xlsx
+++ b/anjou/하얀 리스트_최신.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anjou_003\Documents\TIL\anjou\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C1094D-EFA8-481A-B1A7-0D3396F0D5BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3FF47DA-BFBF-4E05-BC2E-EFAF4A094CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{3D4578EB-7E78-447C-8344-4DCAF160C621}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{3D4578EB-7E78-447C-8344-4DCAF160C621}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>슈다페드 (비슷한거)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -149,10 +149,15 @@
     <t>코데원 포르테 시럽 100p</t>
   </si>
   <si>
-    <t>클래신건조시럽 100ml</t>
-  </si>
-  <si>
     <t>뮤코졸정 1000T</t>
+  </si>
+  <si>
+    <t>클래신건조시럽 125mg/100ml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리보트릴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -295,7 +300,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -311,17 +316,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -786,7 +788,7 @@
   <dimension ref="B1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E2"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -795,21 +797,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
     </row>
     <row r="2" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
     </row>
     <row r="3" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="2"/>
@@ -818,7 +820,7 @@
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="2"/>
@@ -827,7 +829,7 @@
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="2"/>
@@ -836,7 +838,7 @@
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C6" s="2"/>
@@ -845,7 +847,7 @@
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C7" s="2"/>
@@ -854,7 +856,7 @@
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C8" s="2"/>
@@ -863,7 +865,7 @@
       <c r="F8" s="4"/>
     </row>
     <row r="9" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C9" s="2"/>
@@ -872,7 +874,7 @@
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C10" s="2"/>
@@ -881,7 +883,7 @@
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C11" s="2"/>
@@ -890,7 +892,7 @@
       <c r="F11" s="4"/>
     </row>
     <row r="12" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C12" s="2"/>
@@ -899,7 +901,7 @@
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C13" s="2"/>
@@ -908,8 +910,8 @@
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="8" t="s">
-        <v>33</v>
+      <c r="B14" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -917,85 +919,55 @@
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="8" t="s">
-        <v>34</v>
+      <c r="B15" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="3"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="7"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-    </row>
-    <row r="17" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="7"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-    </row>
-    <row r="18" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="7"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-    </row>
-    <row r="19" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="7"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-    </row>
-    <row r="20" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="7"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-    </row>
-    <row r="21" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="7"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-    </row>
-    <row r="22" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="7"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-    </row>
-    <row r="23" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="7"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-    </row>
-    <row r="24" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="7"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-    </row>
-    <row r="25" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="7"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-    </row>
-    <row r="26" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="7"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-    </row>
-    <row r="27" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="7"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
+    <row r="16" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="5"/>
+    </row>
+    <row r="18" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="5"/>
+    </row>
+    <row r="19" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="5"/>
+    </row>
+    <row r="20" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="5"/>
+    </row>
+    <row r="21" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="5"/>
+    </row>
+    <row r="22" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="5"/>
+    </row>
+    <row r="23" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="5"/>
+    </row>
+    <row r="24" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="5"/>
+    </row>
+    <row r="25" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="5"/>
+    </row>
+    <row r="26" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="5"/>
+    </row>
+    <row r="27" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/anjou/하얀 리스트_최신.xlsx
+++ b/anjou/하얀 리스트_최신.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anjou_003\Documents\TIL\anjou\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3FF47DA-BFBF-4E05-BC2E-EFAF4A094CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43FE38DC-2EA4-47A5-AB87-CD866E83825F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{3D4578EB-7E78-447C-8344-4DCAF160C621}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{3D4578EB-7E78-447C-8344-4DCAF160C621}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -788,7 +788,7 @@
   <dimension ref="B1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/anjou/하얀 리스트_최신.xlsx
+++ b/anjou/하얀 리스트_최신.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anjou_003\Documents\TIL\anjou\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43FE38DC-2EA4-47A5-AB87-CD866E83825F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E23A5D-06C6-4A0E-B4EB-A9DFEC40A4A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{3D4578EB-7E78-447C-8344-4DCAF160C621}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{3D4578EB-7E78-447C-8344-4DCAF160C621}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>슈다페드 (비슷한거)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -157,6 +157,10 @@
   </si>
   <si>
     <t>리보트릴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슈다페드</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -785,10 +789,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D78F7EBD-E672-4AF4-A3E8-634D59A13FD8}">
-  <dimension ref="B1:F27"/>
+  <dimension ref="B1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -920,7 +924,7 @@
     </row>
     <row r="15" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -929,45 +933,54 @@
     </row>
     <row r="16" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="3"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="5"/>
-    </row>
-    <row r="18" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="5"/>
     </row>
-    <row r="19" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="5"/>
     </row>
-    <row r="20" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="5"/>
     </row>
-    <row r="21" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="5"/>
     </row>
-    <row r="22" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="5"/>
     </row>
-    <row r="23" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="5"/>
     </row>
-    <row r="24" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="5"/>
     </row>
-    <row r="25" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="5"/>
     </row>
-    <row r="26" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="5"/>
     </row>
-    <row r="27" spans="2:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="5"/>
+    </row>
+    <row r="28" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
